--- a/wine_template.xlsx
+++ b/wine_template.xlsx
@@ -214,7 +214,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -373,13 +373,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -478,10 +472,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -736,13 +730,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1055,10 +1043,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1380,7 +1368,9 @@
       <c r="E3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" t="s" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" ht="14.6" customHeight="1">
       <c r="A4" t="s" s="4">
@@ -1398,7 +1388,9 @@
       <c r="E4" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" t="s" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" ht="14.6" customHeight="1">
       <c r="A5" t="s" s="4">
@@ -1416,7 +1408,9 @@
       <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" t="s" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" ht="14.6" customHeight="1">
       <c r="A6" t="s" s="4">
@@ -1434,7 +1428,9 @@
       <c r="E6" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" t="s" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" ht="14.6" customHeight="1">
       <c r="A7" t="s" s="4">
@@ -1452,7 +1448,9 @@
       <c r="E7" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" t="s" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="4">
@@ -1470,7 +1468,9 @@
       <c r="E8" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" t="s" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="5">
@@ -1508,7 +1508,9 @@
       <c r="E10" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" t="s" s="8">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
